--- a/Substitutes.xlsx
+++ b/Substitutes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08fdbd61c809a166/Desktop/Projects/PM7 to Cin7 Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08fdbd61c809a166/Desktop/Projects/cin7-po-wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{D51370EC-FC33-4C06-B46A-ACB5212A9F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E384E14D-A8F8-4F54-9FD3-0688DF9BC78F}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{D51370EC-FC33-4C06-B46A-ACB5212A9F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76553C17-4346-495E-956D-B28D26783EAA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{075801A3-F3AE-42C9-BA78-895F4008AAE6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{075801A3-F3AE-42C9-BA78-895F4008AAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitutions" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Substitutions!$A$1:$Q$10267</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="2272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="2275">
   <si>
     <t>1460-3077CNS</t>
   </si>
@@ -6855,13 +6856,22 @@
   </si>
   <si>
     <t>Substitute</t>
+  </si>
+  <si>
+    <t>Substitutes</t>
+  </si>
+  <si>
+    <t>https://hardwaredirect.sharepoint.com/_layouts/15/doc.aspx?sourcedoc={7b2018b7-11f5-4223-8000-ea231284ccd6}&amp;action=edit</t>
+  </si>
+  <si>
+    <t>https://hardwaredirect.sharepoint.com/:x:/g/IQC3GCB79REjQoAA6iMShMzWAbHRfcyvcL-xATj4pQy5Xtk?download=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6916,6 +6926,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7007,10 +7025,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7094,8 +7113,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
@@ -7658,10 +7679,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -7961,9 +7978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C62F90-DD95-40DB-B1B6-46FF035F0952}">
   <dimension ref="A1:XFC10146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19562,4 +19579,51 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031E5AA7-9877-433A-9774-8758E77EB909}">
+  <dimension ref="E3:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="35" t="s">
+        <v>2272</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="35" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" display="https://hardwaredirect.sharepoint.com/_layouts/15/doc.aspx?sourcedoc=%7b7b2018b7-11f5-4223-8000-ea231284ccd6%7d&amp;action=edit" xr:uid="{E1F0C4B1-F640-421C-8664-5106AAEB2D53}"/>
+    <hyperlink ref="H17" r:id="rId2" xr:uid="{46D0DEA0-6550-4682-A7B8-ACC3DD39C5D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>